--- a/covid19/data_covid19_msis_by_time_location_2020-04-24.xlsx
+++ b/covid19/data_covid19_msis_by_time_location_2020-04-24.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,6 +431,3471 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K2">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>43882</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K3">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43883</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43884</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>2020</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43885</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>2020</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43886</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>2020</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43887</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K8">
+        <v>32</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>2020</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43889</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K10">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2">
+        <v>43890</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>2020</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K11">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43891</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>2020</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43892</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>2020</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43893</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43894</v>
+      </c>
+      <c r="M14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K15">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43895</v>
+      </c>
+      <c r="M15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>2020</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K16">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2">
+        <v>43896</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>2020</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43897</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K18">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43898</v>
+      </c>
+      <c r="M18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>2020</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K19">
+        <v>34</v>
+      </c>
+      <c r="L19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="M19">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>2020</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K20">
+        <v>34</v>
+      </c>
+      <c r="L20" s="2">
+        <v>43900</v>
+      </c>
+      <c r="M20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G21">
+        <v>2020</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K21">
+        <v>34</v>
+      </c>
+      <c r="L21" s="2">
+        <v>43901</v>
+      </c>
+      <c r="M21">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>2020</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43902</v>
+      </c>
+      <c r="M22">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43903</v>
+      </c>
+      <c r="M23">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G24">
+        <v>2020</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K24">
+        <v>34</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43904</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K25">
+        <v>34</v>
+      </c>
+      <c r="L25" s="2">
+        <v>43905</v>
+      </c>
+      <c r="M25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>2020</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
+      <c r="L26" s="2">
+        <v>43906</v>
+      </c>
+      <c r="M26">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>2020</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K27">
+        <v>35</v>
+      </c>
+      <c r="L27" s="2">
+        <v>43907</v>
+      </c>
+      <c r="M27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>2020</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K28">
+        <v>35</v>
+      </c>
+      <c r="L28" s="2">
+        <v>43908</v>
+      </c>
+      <c r="M28">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>2020</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K29">
+        <v>35</v>
+      </c>
+      <c r="L29" s="2">
+        <v>43909</v>
+      </c>
+      <c r="M29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>2020</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K30">
+        <v>35</v>
+      </c>
+      <c r="L30" s="2">
+        <v>43910</v>
+      </c>
+      <c r="M30">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>2020</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K31">
+        <v>35</v>
+      </c>
+      <c r="L31" s="2">
+        <v>43911</v>
+      </c>
+      <c r="M31">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>2020</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K32">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2">
+        <v>43912</v>
+      </c>
+      <c r="M32">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>2020</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K33">
+        <v>36</v>
+      </c>
+      <c r="L33" s="2">
+        <v>43913</v>
+      </c>
+      <c r="M33">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G34">
+        <v>2020</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K34">
+        <v>36</v>
+      </c>
+      <c r="L34" s="2">
+        <v>43914</v>
+      </c>
+      <c r="M34">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>2020</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K35">
+        <v>36</v>
+      </c>
+      <c r="L35" s="2">
+        <v>43915</v>
+      </c>
+      <c r="M35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G36">
+        <v>2020</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>36</v>
+      </c>
+      <c r="L36" s="2">
+        <v>43916</v>
+      </c>
+      <c r="M36">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G37">
+        <v>2020</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37" s="2">
+        <v>43917</v>
+      </c>
+      <c r="M37">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G38">
+        <v>2020</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K38">
+        <v>36</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="M38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G39">
+        <v>2020</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2020-13</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K39">
+        <v>36</v>
+      </c>
+      <c r="L39" s="2">
+        <v>43919</v>
+      </c>
+      <c r="M39">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G40">
+        <v>2020</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K40">
+        <v>37</v>
+      </c>
+      <c r="L40" s="2">
+        <v>43920</v>
+      </c>
+      <c r="M40">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G41">
+        <v>2020</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41" s="2">
+        <v>43921</v>
+      </c>
+      <c r="M41">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G42">
+        <v>2020</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+      <c r="L42" s="2">
+        <v>43922</v>
+      </c>
+      <c r="M42">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G43">
+        <v>2020</v>
+      </c>
+      <c r="H43">
+        <v>14</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+      <c r="L43" s="2">
+        <v>43923</v>
+      </c>
+      <c r="M43">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>2020</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K44">
+        <v>37</v>
+      </c>
+      <c r="L44" s="2">
+        <v>43924</v>
+      </c>
+      <c r="M44">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G45">
+        <v>2020</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K45">
+        <v>37</v>
+      </c>
+      <c r="L45" s="2">
+        <v>43925</v>
+      </c>
+      <c r="M45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>2020</v>
+      </c>
+      <c r="H46">
+        <v>14</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2020-14</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K46">
+        <v>37</v>
+      </c>
+      <c r="L46" s="2">
+        <v>43926</v>
+      </c>
+      <c r="M46">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>2020</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K47">
+        <v>38</v>
+      </c>
+      <c r="L47" s="2">
+        <v>43927</v>
+      </c>
+      <c r="M47">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G48">
+        <v>2020</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K48">
+        <v>38</v>
+      </c>
+      <c r="L48" s="2">
+        <v>43928</v>
+      </c>
+      <c r="M48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>2020</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K49">
+        <v>38</v>
+      </c>
+      <c r="L49" s="2">
+        <v>43929</v>
+      </c>
+      <c r="M49">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G50">
+        <v>2020</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K50">
+        <v>38</v>
+      </c>
+      <c r="L50" s="2">
+        <v>43930</v>
+      </c>
+      <c r="M50">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G51">
+        <v>2020</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K51">
+        <v>38</v>
+      </c>
+      <c r="L51" s="2">
+        <v>43931</v>
+      </c>
+      <c r="M51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>2020</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K52">
+        <v>38</v>
+      </c>
+      <c r="L52" s="2">
+        <v>43932</v>
+      </c>
+      <c r="M52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G53">
+        <v>2020</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2020-15</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K53">
+        <v>38</v>
+      </c>
+      <c r="L53" s="2">
+        <v>43933</v>
+      </c>
+      <c r="M53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G54">
+        <v>2020</v>
+      </c>
+      <c r="H54">
+        <v>16</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K54">
+        <v>39</v>
+      </c>
+      <c r="L54" s="2">
+        <v>43934</v>
+      </c>
+      <c r="M54">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G55">
+        <v>2020</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K55">
+        <v>39</v>
+      </c>
+      <c r="L55" s="2">
+        <v>43935</v>
+      </c>
+      <c r="M55">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G56">
+        <v>2020</v>
+      </c>
+      <c r="H56">
+        <v>16</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+      <c r="L56" s="2">
+        <v>43936</v>
+      </c>
+      <c r="M56">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G57">
+        <v>2020</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K57">
+        <v>39</v>
+      </c>
+      <c r="L57" s="2">
+        <v>43937</v>
+      </c>
+      <c r="M57">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G58">
+        <v>2020</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K58">
+        <v>39</v>
+      </c>
+      <c r="L58" s="2">
+        <v>43938</v>
+      </c>
+      <c r="M58">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G59">
+        <v>2020</v>
+      </c>
+      <c r="H59">
+        <v>16</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K59">
+        <v>39</v>
+      </c>
+      <c r="L59" s="2">
+        <v>43939</v>
+      </c>
+      <c r="M59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G60">
+        <v>2020</v>
+      </c>
+      <c r="H60">
+        <v>16</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2020-16</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K60">
+        <v>39</v>
+      </c>
+      <c r="L60" s="2">
+        <v>43940</v>
+      </c>
+      <c r="M60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>2020</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G61">
+        <v>2020</v>
+      </c>
+      <c r="H61">
+        <v>17</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2020-17</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K61">
+        <v>40</v>
+      </c>
+      <c r="L61" s="2">
+        <v>43941</v>
+      </c>
+      <c r="M61">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G62">
+        <v>2020</v>
+      </c>
+      <c r="H62">
+        <v>17</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2020-17</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K62">
+        <v>40</v>
+      </c>
+      <c r="L62" s="2">
+        <v>43942</v>
+      </c>
+      <c r="M62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G63">
+        <v>2020</v>
+      </c>
+      <c r="H63">
+        <v>17</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2020-17</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K63">
+        <v>40</v>
+      </c>
+      <c r="L63" s="2">
+        <v>43943</v>
+      </c>
+      <c r="M63">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>norge</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>2020</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G64">
+        <v>2020</v>
+      </c>
+      <c r="H64">
+        <v>17</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2020-17</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2019/2020</t>
+        </is>
+      </c>
+      <c r="K64">
+        <v>40</v>
+      </c>
+      <c r="L64" s="2">
+        <v>43944</v>
+      </c>
+      <c r="M64">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
